--- a/assets/统计结果.xlsx
+++ b/assets/统计结果.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\root\trt-elan-nopad\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FAB6548-7DD6-41C8-ACF6-398E4B6C3275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC3A56-B819-403F-A343-1F75D6A25D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1728DDCB-461D-49D2-AEA3-240403941FC2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{1728DDCB-461D-49D2-AEA3-240403941FC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -215,439 +211,589 @@
                   <c:v>9333</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10976</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8978</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9335</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6530</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10152</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6533</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6882</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>10608</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8982</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>10146</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>12608</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12246</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12254</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13056</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>8520</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>9336</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>4910</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>6531</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>8517</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>9792</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>4083</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>4448</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>1173</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>819</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>3278</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
+                  <c:v>13062</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>9330</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>13070</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>7344</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>7350</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>9795</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>7347</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
+                  <c:v>12245</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13058</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12242</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13061</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>5256</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="47">
                   <c:v>2448</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>6534</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>8160</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
+                  <c:v>12243</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11438</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>5250</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="54">
+                  <c:v>12597</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2451</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="56">
+                  <c:v>11792</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>10149</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="58">
                   <c:v>6069</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="59">
                   <c:v>10160</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="60">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="61">
                   <c:v>1635</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="62">
                   <c:v>9806</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="63">
                   <c:v>6072</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="64">
+                  <c:v>13410</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>1176</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="66">
                   <c:v>2462</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="67">
+                  <c:v>11778</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13059</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>4440</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="71">
                   <c:v>4437</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="72">
+                  <c:v>11424</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10965</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>2816</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="75">
                   <c:v>3267</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="76">
                   <c:v>5712</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="77">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="78">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="79">
                   <c:v>3270</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="80">
                   <c:v>6896</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="81">
+                  <c:v>12240</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>4902</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="83">
                   <c:v>7701</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="84">
+                  <c:v>12594</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>2454</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="86">
                   <c:v>4094</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="87">
                   <c:v>4899</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="88">
                   <c:v>8979</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="89">
                   <c:v>7358</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="90">
                   <c:v>4434</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="91">
                   <c:v>9798</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="92">
                   <c:v>8163</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="93">
                   <c:v>3618</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="94">
                   <c:v>6080</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="95">
                   <c:v>1632</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="96">
                   <c:v>1986</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="97">
                   <c:v>5726</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="98">
                   <c:v>3264</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="99">
                   <c:v>7704</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="100">
                   <c:v>6528</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="101">
                   <c:v>8976</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="102">
                   <c:v>3632</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="103">
                   <c:v>816</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="104">
+                  <c:v>11430</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>8174</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="106">
                   <c:v>3621</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="107">
                   <c:v>10614</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="108">
                   <c:v>4086</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="109">
                   <c:v>10622</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="110">
                   <c:v>6066</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="111">
                   <c:v>2808</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="112">
                   <c:v>1638</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="113">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="114">
                   <c:v>4896</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="115">
                   <c:v>6542</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="116">
                   <c:v>2805</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="117">
                   <c:v>5718</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="118">
+                  <c:v>11781</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12599</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>10148</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="121">
                   <c:v>2807</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="122">
                   <c:v>8165</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="123">
+                  <c:v>11780</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="125">
                   <c:v>6887</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="126">
+                  <c:v>10967</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>4082</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="128">
                   <c:v>1172</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="129">
                   <c:v>10610</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="130">
                   <c:v>3266</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="131">
                   <c:v>3269</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="132">
                   <c:v>6068</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="133">
                   <c:v>1634</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="134">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="135">
                   <c:v>10613</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="136">
                   <c:v>8519</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="137">
                   <c:v>6884</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="138">
                   <c:v>4085</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="139">
                   <c:v>7346</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="140">
                   <c:v>5255</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="141">
                   <c:v>4439</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="142">
                   <c:v>10964</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="143">
                   <c:v>818</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="144">
                   <c:v>1991</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="145">
                   <c:v>5717</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="146">
+                  <c:v>13412</c:v>
+                </c:pt>
+                <c:pt idx="147">
                   <c:v>2804</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="148">
                   <c:v>2453</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="149">
                   <c:v>1637</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="150">
                   <c:v>7700</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="151">
                   <c:v>8162</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="152">
                   <c:v>7349</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="153">
+                  <c:v>11426</c:v>
+                </c:pt>
+                <c:pt idx="154">
                   <c:v>7703</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="155">
                   <c:v>8516</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="156">
                   <c:v>2450</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="157">
                   <c:v>1175</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="158">
                   <c:v>9797</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="159">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="160">
                   <c:v>5252</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="161">
                   <c:v>821</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="162">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="163">
                   <c:v>4901</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="164">
                   <c:v>1989</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="165">
                   <c:v>1988</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="166">
                   <c:v>9794</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="167">
                   <c:v>4898</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="168">
                   <c:v>6071</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="169">
+                  <c:v>11429</c:v>
+                </c:pt>
+                <c:pt idx="170">
                   <c:v>4436</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="171">
                   <c:v>3620</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="172">
                   <c:v>10151</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="173">
+                  <c:v>11783</c:v>
+                </c:pt>
+                <c:pt idx="174">
                   <c:v>8981</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="175">
                   <c:v>3623</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="176">
                   <c:v>5714</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="177">
                   <c:v>5715</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="178">
                   <c:v>3624</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="179">
                   <c:v>357</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="180">
                   <c:v>5253</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="181">
                   <c:v>1184</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="182">
                   <c:v>10611</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="183">
                   <c:v>10962</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="184">
                   <c:v>5264</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>8990</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>8166</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>822</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6888</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>11784</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8514</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1646</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11427</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9332</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>2802</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -677,7 +823,7 @@
                   <c:v>0.53220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53369999999999995</c:v>
+                  <c:v>0.53280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.53369999999999995</c:v>
@@ -689,331 +835,331 @@
                   <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53510000000000002</c:v>
+                  <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.53510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.53510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.53520000000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.53690000000000004</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.53739999999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>0.54010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5444</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78349999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.78559999999999997</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>0.78749999999999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>0.78759999999999997</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>0.78779999999999994</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>0.78790000000000004</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>0.78810000000000002</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>0.78839999999999999</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>0.78839999999999999</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>0.78879999999999995</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>0.78890000000000005</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
+                  <c:v>0.78890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.78910000000000002</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>0.78910000000000002</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.78920000000000001</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>0.78939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>0.78959999999999997</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>0.78969999999999996</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.78979999999999995</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="47">
                   <c:v>0.78990000000000005</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
                   <c:v>0.78990000000000005</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="49">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0.79010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="53">
+                  <c:v>0.79010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0.7903</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="56">
                   <c:v>0.7903</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="57">
+                  <c:v>0.7903</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>0.79039999999999999</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="59">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="60">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="61">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="62">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="63">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="64">
+                  <c:v>0.79059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0.79069999999999996</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="66">
                   <c:v>0.79079999999999995</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="67">
+                  <c:v>0.79079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.79090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.79090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="71">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="72">
+                  <c:v>0.79110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.7913</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="74">
                   <c:v>0.7913</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="75">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="77">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="78">
                   <c:v>0.79159999999999997</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="79">
                   <c:v>0.79159999999999997</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="80">
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="81">
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="82">
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="83">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="86">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="87">
                   <c:v>0.79200000000000004</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="88">
                   <c:v>0.7923</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="89">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="90">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="91">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="92">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="93">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="94">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="95">
                   <c:v>0.79269999999999996</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="96">
                   <c:v>0.79269999999999996</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="97">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="98">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="99">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="100">
                   <c:v>0.79290000000000005</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="101">
                   <c:v>0.79310000000000003</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="102">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="103">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="104">
                   <c:v>0.79330000000000001</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="105">
+                  <c:v>0.79330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>0.79339999999999999</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="107">
                   <c:v>0.79349999999999998</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="108">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="109">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="110">
                   <c:v>0.79369999999999996</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="111">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="112">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="113">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="114">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="115">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="116">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="117">
                   <c:v>0.79420000000000002</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.79430000000000001</c:v>
+                  <c:v>0.79420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>0.79430000000000001</c:v>
@@ -1088,25 +1234,25 @@
                   <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.7944</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.79449999999999998</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.79449999999999998</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.79449999999999998</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.79459999999999997</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.79469999999999996</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1443,439 +1589,439 @@
                   <c:v>9333</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10976</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>8978</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>9335</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>6530</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10152</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>6533</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6882</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>10608</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8982</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>10146</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>12608</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12246</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>12254</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13056</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>8520</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>9336</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>4910</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>6531</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>8517</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>9792</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>4083</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>4448</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>1173</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>819</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>3278</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
+                  <c:v>13062</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>9330</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="34">
+                  <c:v>13070</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>7344</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="36">
                   <c:v>7350</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="37">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>9795</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>7347</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
+                  <c:v>12245</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>12596</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13058</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>12242</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>13061</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>5256</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="47">
                   <c:v>2448</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
+                  <c:v>12600</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>6534</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="50">
                   <c:v>8160</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
+                  <c:v>12243</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>11438</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>5250</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="54">
+                  <c:v>12597</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2451</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="56">
+                  <c:v>11792</c:v>
+                </c:pt>
+                <c:pt idx="57">
                   <c:v>10149</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="58">
                   <c:v>6069</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="59">
                   <c:v>10160</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="60">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="61">
                   <c:v>1635</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="62">
                   <c:v>9806</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="63">
                   <c:v>6072</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="64">
+                  <c:v>13410</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>1176</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="66">
                   <c:v>2462</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="67">
+                  <c:v>11778</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>10968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13059</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>4440</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="71">
                   <c:v>4437</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="72">
+                  <c:v>11424</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>10965</c:v>
+                </c:pt>
+                <c:pt idx="74">
                   <c:v>2816</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="75">
                   <c:v>3267</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="76">
                   <c:v>5712</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="77">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="78">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="79">
                   <c:v>3270</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="80">
                   <c:v>6896</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="81">
+                  <c:v>12240</c:v>
+                </c:pt>
+                <c:pt idx="82">
                   <c:v>4902</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="83">
                   <c:v>7701</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="84">
+                  <c:v>12594</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>2454</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="86">
                   <c:v>4094</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="87">
                   <c:v>4899</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="88">
                   <c:v>8979</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="89">
                   <c:v>7358</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="90">
                   <c:v>4434</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="91">
                   <c:v>9798</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="92">
                   <c:v>8163</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="93">
                   <c:v>3618</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="94">
                   <c:v>6080</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="95">
                   <c:v>1632</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="96">
                   <c:v>1986</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="97">
                   <c:v>5726</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="98">
                   <c:v>3264</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="99">
                   <c:v>7704</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="100">
                   <c:v>6528</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="101">
                   <c:v>8976</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="102">
                   <c:v>3632</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="103">
                   <c:v>816</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="104">
+                  <c:v>11430</c:v>
+                </c:pt>
+                <c:pt idx="105">
                   <c:v>8174</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="106">
                   <c:v>3621</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="107">
                   <c:v>10614</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="108">
                   <c:v>4086</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="109">
                   <c:v>10622</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="110">
                   <c:v>6066</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="111">
                   <c:v>2808</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="112">
                   <c:v>1638</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="113">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="114">
                   <c:v>4896</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="115">
                   <c:v>6542</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="116">
                   <c:v>2805</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="117">
                   <c:v>5718</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="118">
+                  <c:v>11781</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12599</c:v>
+                </c:pt>
+                <c:pt idx="120">
                   <c:v>10148</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="121">
                   <c:v>2807</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="122">
                   <c:v>8165</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="123">
+                  <c:v>11780</c:v>
+                </c:pt>
+                <c:pt idx="124">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="125">
                   <c:v>6887</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="126">
+                  <c:v>10967</c:v>
+                </c:pt>
+                <c:pt idx="127">
                   <c:v>4082</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="128">
                   <c:v>1172</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="129">
                   <c:v>10610</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="130">
                   <c:v>3266</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="131">
                   <c:v>3269</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="132">
                   <c:v>6068</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="133">
                   <c:v>1634</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="134">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="135">
                   <c:v>10613</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="136">
                   <c:v>8519</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="137">
                   <c:v>6884</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="138">
                   <c:v>4085</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="139">
                   <c:v>7346</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="140">
                   <c:v>5255</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="141">
                   <c:v>4439</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="142">
                   <c:v>10964</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="143">
                   <c:v>818</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="144">
                   <c:v>1991</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="145">
                   <c:v>5717</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="146">
+                  <c:v>13412</c:v>
+                </c:pt>
+                <c:pt idx="147">
                   <c:v>2804</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="148">
                   <c:v>2453</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="149">
                   <c:v>1637</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="150">
                   <c:v>7700</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>8162</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>7349</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>7703</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>8516</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2450</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1175</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>9797</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>5252</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>821</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>4901</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1989</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1988</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>9794</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>4898</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6071</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>4436</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3620</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>10151</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>8981</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3623</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>5714</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>5715</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3624</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>5253</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1184</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>10611</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>10962</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>5264</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1905,7 +2051,7 @@
                   <c:v>0.53220000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53369999999999995</c:v>
+                  <c:v>0.53280000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.53369999999999995</c:v>
@@ -1917,331 +2063,331 @@
                   <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.53510000000000002</c:v>
+                  <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.53510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>0.53510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.53520000000000001</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>0.53690000000000004</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.53739999999999999</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
+                  <c:v>0.54010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.54110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.5444</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78349999999999997</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.78559999999999997</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>0.78749999999999998</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>0.78759999999999997</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>0.78779999999999994</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>0.78790000000000004</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>0.78810000000000002</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>0.78839999999999999</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>0.78839999999999999</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>0.78879999999999995</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>0.78890000000000005</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
+                  <c:v>0.78890000000000005</c:v>
+                </c:pt>
+                <c:pt idx="34">
                   <c:v>0.78910000000000002</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="35">
                   <c:v>0.78910000000000002</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="36">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>0.78920000000000001</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="38">
                   <c:v>0.78939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="39">
                   <c:v>0.78959999999999997</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="40">
                   <c:v>0.78969999999999996</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="41">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
                   <c:v>0.78979999999999995</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="47">
                   <c:v>0.78990000000000005</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="48">
                   <c:v>0.78990000000000005</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="49">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="51">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0.79010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="53">
+                  <c:v>0.79010000000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0.7903</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="56">
                   <c:v>0.7903</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="57">
+                  <c:v>0.7903</c:v>
+                </c:pt>
+                <c:pt idx="58">
                   <c:v>0.79039999999999999</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="59">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="60">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="61">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="62">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="63">
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="64">
+                  <c:v>0.79059999999999997</c:v>
+                </c:pt>
+                <c:pt idx="65">
                   <c:v>0.79069999999999996</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="66">
                   <c:v>0.79079999999999995</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="67">
+                  <c:v>0.79079999999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.79090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.79090000000000005</c:v>
+                </c:pt>
+                <c:pt idx="70">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="71">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="72">
+                  <c:v>0.79110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0.7913</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="74">
                   <c:v>0.7913</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="75">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="76">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="77">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="78">
                   <c:v>0.79159999999999997</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="79">
                   <c:v>0.79159999999999997</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="80">
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="81">
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="82">
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="83">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="86">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="87">
                   <c:v>0.79200000000000004</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="88">
                   <c:v>0.7923</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="89">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="90">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="91">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="92">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="93">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="94">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="95">
                   <c:v>0.79269999999999996</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="96">
                   <c:v>0.79269999999999996</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="97">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="98">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="99">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="100">
                   <c:v>0.79290000000000005</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="101">
                   <c:v>0.79310000000000003</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="102">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="103">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="104">
                   <c:v>0.79330000000000001</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="105">
+                  <c:v>0.79330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
                   <c:v>0.79339999999999999</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="107">
                   <c:v>0.79349999999999998</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="108">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="109">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="110">
                   <c:v>0.79369999999999996</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="111">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="112">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="113">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="114">
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="115">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="116">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="117">
                   <c:v>0.79420000000000002</c:v>
                 </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
                 <c:pt idx="118">
-                  <c:v>0.79430000000000001</c:v>
+                  <c:v>0.79420000000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
                   <c:v>0.79430000000000001</c:v>
@@ -2316,28 +2462,28 @@
                   <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.7944</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.79449999999999998</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.79449999999999998</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.79449999999999998</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.79459999999999997</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.79469999999999996</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.79500000000000004</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.7954</c:v>
+                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4140,15 +4286,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77526150-21E5-44D0-AC0B-7164ABB61D17}">
-  <dimension ref="A1:B151"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+      <selection sqref="A1:B201"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>6885</v>
       </c>
@@ -4156,7 +4302,7 @@
         <v>0.52829999999999999</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>9344</v>
       </c>
@@ -4164,7 +4310,7 @@
         <v>0.53029999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>7698</v>
       </c>
@@ -4172,7 +4318,7 @@
         <v>0.53120000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>8528</v>
       </c>
@@ -4180,7 +4326,7 @@
         <v>0.53190000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>7712</v>
       </c>
@@ -4188,7 +4334,7 @@
         <v>0.53190000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>9333</v>
       </c>
@@ -4196,1169 +4342,1570 @@
         <v>0.53220000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
+        <v>10976</v>
+      </c>
+      <c r="B7">
+        <v>0.53280000000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8">
         <v>8978</v>
-      </c>
-      <c r="B7">
-        <v>0.53369999999999995</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>9335</v>
       </c>
       <c r="B8">
         <v>0.53369999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>6530</v>
+        <v>9335</v>
       </c>
       <c r="B9">
         <v>0.53369999999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>10152</v>
+        <v>6530</v>
       </c>
       <c r="B10">
         <v>0.53369999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>10152</v>
+      </c>
+      <c r="B11">
+        <v>0.53369999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>6533</v>
-      </c>
-      <c r="B11">
-        <v>0.53510000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>6882</v>
       </c>
       <c r="B12">
         <v>0.53510000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
+        <v>6882</v>
+      </c>
+      <c r="B13">
+        <v>0.53510000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14">
         <v>10608</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.53520000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15">
         <v>8982</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>0.53690000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>10146</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>0.53739999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>12608</v>
+      </c>
+      <c r="B17">
+        <v>0.54010000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>12246</v>
+      </c>
+      <c r="B18">
+        <v>0.54110000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>12254</v>
+      </c>
+      <c r="B19">
+        <v>0.5444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>13056</v>
+      </c>
+      <c r="B20">
+        <v>0.78349999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>8520</v>
       </c>
-      <c r="B16">
+      <c r="B21">
         <v>0.78559999999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>9336</v>
       </c>
-      <c r="B17">
+      <c r="B22">
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>4910</v>
       </c>
-      <c r="B18">
+      <c r="B23">
         <v>0.78759999999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>6531</v>
       </c>
-      <c r="B19">
+      <c r="B24">
         <v>0.78779999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>1170</v>
       </c>
-      <c r="B20">
+      <c r="B25">
         <v>0.78790000000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26">
         <v>8517</v>
       </c>
-      <c r="B21">
+      <c r="B26">
         <v>0.78810000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27">
         <v>9792</v>
       </c>
-      <c r="B22">
+      <c r="B27">
         <v>0.78839999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>4083</v>
       </c>
-      <c r="B23">
+      <c r="B28">
         <v>0.78839999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>4448</v>
       </c>
-      <c r="B24">
+      <c r="B29">
         <v>0.78869999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>1173</v>
       </c>
-      <c r="B25">
+      <c r="B30">
         <v>0.78869999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>819</v>
       </c>
-      <c r="B26">
+      <c r="B31">
         <v>0.78869999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>3278</v>
       </c>
-      <c r="B27">
+      <c r="B32">
         <v>0.78879999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>13062</v>
+      </c>
+      <c r="B33">
+        <v>0.78890000000000005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34">
         <v>9330</v>
       </c>
-      <c r="B28">
+      <c r="B34">
         <v>0.78890000000000005</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>13070</v>
+      </c>
+      <c r="B35">
+        <v>0.78910000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36">
         <v>7344</v>
       </c>
-      <c r="B29">
+      <c r="B36">
         <v>0.78910000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37">
         <v>7350</v>
       </c>
-      <c r="B30">
+      <c r="B37">
         <v>0.78910000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38">
         <v>1</v>
       </c>
-      <c r="B31">
+      <c r="B38">
         <v>0.78920000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39">
         <v>2000</v>
       </c>
-      <c r="B32">
+      <c r="B39">
         <v>0.78939999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40">
         <v>9795</v>
       </c>
-      <c r="B33">
+      <c r="B40">
         <v>0.78959999999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41">
         <v>7347</v>
       </c>
-      <c r="B34">
+      <c r="B41">
         <v>0.78969999999999996</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>12245</v>
+      </c>
+      <c r="B42">
+        <v>0.78969999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>12596</v>
+      </c>
+      <c r="B43">
+        <v>0.78969999999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>13058</v>
+      </c>
+      <c r="B44">
+        <v>0.78969999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>12242</v>
+      </c>
+      <c r="B45">
+        <v>0.78969999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>13061</v>
+      </c>
+      <c r="B46">
+        <v>0.78969999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47">
         <v>5256</v>
       </c>
-      <c r="B35">
+      <c r="B47">
         <v>0.78979999999999995</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48">
         <v>2448</v>
       </c>
-      <c r="B36">
+      <c r="B48">
         <v>0.78990000000000005</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>12600</v>
+      </c>
+      <c r="B49">
+        <v>0.78990000000000005</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50">
         <v>6534</v>
       </c>
-      <c r="B37">
+      <c r="B50">
         <v>0.78990000000000005</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51">
         <v>8160</v>
       </c>
-      <c r="B38">
+      <c r="B51">
         <v>0.79</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>12243</v>
+      </c>
+      <c r="B52">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>11438</v>
+      </c>
+      <c r="B53">
+        <v>0.79010000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A54">
         <v>5250</v>
       </c>
-      <c r="B39">
+      <c r="B54">
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>12597</v>
+      </c>
+      <c r="B55">
+        <v>0.79020000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A56">
         <v>2451</v>
       </c>
-      <c r="B40">
+      <c r="B56">
         <v>0.7903</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>11792</v>
+      </c>
+      <c r="B57">
+        <v>0.7903</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A58">
         <v>10149</v>
       </c>
-      <c r="B41">
+      <c r="B58">
         <v>0.7903</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A59">
         <v>6069</v>
       </c>
-      <c r="B42">
+      <c r="B59">
         <v>0.79039999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A60">
         <v>10160</v>
       </c>
-      <c r="B43">
+      <c r="B60">
         <v>0.79049999999999998</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A61">
         <v>14</v>
       </c>
-      <c r="B44">
+      <c r="B61">
         <v>0.79049999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A62">
         <v>1635</v>
       </c>
-      <c r="B45">
+      <c r="B62">
         <v>0.79049999999999998</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A63">
         <v>9806</v>
       </c>
-      <c r="B46">
+      <c r="B63">
         <v>0.79049999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A64">
         <v>6072</v>
       </c>
-      <c r="B47">
+      <c r="B64">
         <v>0.79049999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>13410</v>
+      </c>
+      <c r="B65">
+        <v>0.79059999999999997</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A66">
         <v>1176</v>
       </c>
-      <c r="B48">
+      <c r="B66">
         <v>0.79069999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67">
         <v>2462</v>
       </c>
-      <c r="B49">
+      <c r="B67">
         <v>0.79079999999999995</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>11778</v>
+      </c>
+      <c r="B68">
+        <v>0.79079999999999995</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>10968</v>
+      </c>
+      <c r="B69">
+        <v>0.79090000000000005</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>13059</v>
+      </c>
+      <c r="B70">
+        <v>0.79090000000000005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A71">
         <v>4440</v>
       </c>
-      <c r="B50">
+      <c r="B71">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A72">
         <v>4437</v>
       </c>
-      <c r="B51">
+      <c r="B72">
         <v>0.79100000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>11424</v>
+      </c>
+      <c r="B73">
+        <v>0.79110000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>10965</v>
+      </c>
+      <c r="B74">
+        <v>0.7913</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A75">
         <v>2816</v>
       </c>
-      <c r="B52">
+      <c r="B75">
         <v>0.7913</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A76">
         <v>3267</v>
       </c>
-      <c r="B53">
+      <c r="B76">
         <v>0.7913</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A77">
         <v>5712</v>
       </c>
-      <c r="B54">
+      <c r="B77">
         <v>0.79149999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78">
         <v>6</v>
       </c>
-      <c r="B55">
+      <c r="B78">
         <v>0.79149999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79">
         <v>354</v>
       </c>
-      <c r="B56">
+      <c r="B79">
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80">
         <v>3270</v>
       </c>
-      <c r="B57">
+      <c r="B80">
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A81">
         <v>6896</v>
       </c>
-      <c r="B58">
+      <c r="B81">
         <v>0.79169999999999996</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>12240</v>
+      </c>
+      <c r="B82">
+        <v>0.79169999999999996</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A83">
         <v>4902</v>
       </c>
-      <c r="B59">
+      <c r="B83">
         <v>0.79169999999999996</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A84">
         <v>7701</v>
       </c>
-      <c r="B60">
+      <c r="B84">
         <v>0.79169999999999996</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>12594</v>
+      </c>
+      <c r="B85">
+        <v>0.79169999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86">
         <v>2454</v>
       </c>
-      <c r="B61">
+      <c r="B86">
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A87">
         <v>4094</v>
       </c>
-      <c r="B62">
+      <c r="B87">
         <v>0.79190000000000005</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A88">
         <v>4899</v>
       </c>
-      <c r="B63">
+      <c r="B88">
         <v>0.79200000000000004</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A89">
         <v>8979</v>
       </c>
-      <c r="B64">
+      <c r="B89">
         <v>0.7923</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A90">
         <v>7358</v>
       </c>
-      <c r="B65">
+      <c r="B90">
         <v>0.79239999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91">
         <v>4434</v>
       </c>
-      <c r="B66">
+      <c r="B91">
         <v>0.79239999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A92">
         <v>9798</v>
       </c>
-      <c r="B67">
+      <c r="B92">
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93">
         <v>8163</v>
       </c>
-      <c r="B68">
+      <c r="B93">
         <v>0.79249999999999998</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A94">
         <v>3618</v>
       </c>
-      <c r="B69">
+      <c r="B94">
         <v>0.79259999999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A95">
         <v>6080</v>
       </c>
-      <c r="B70">
+      <c r="B95">
         <v>0.79259999999999997</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A96">
         <v>1632</v>
       </c>
-      <c r="B71">
+      <c r="B96">
         <v>0.79269999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A97">
         <v>1986</v>
       </c>
-      <c r="B72">
+      <c r="B97">
         <v>0.79269999999999996</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A98">
         <v>5726</v>
       </c>
-      <c r="B73">
+      <c r="B98">
         <v>0.79279999999999995</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A99">
         <v>3264</v>
       </c>
-      <c r="B74">
+      <c r="B99">
         <v>0.79279999999999995</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A100">
         <v>7704</v>
       </c>
-      <c r="B75">
+      <c r="B100">
         <v>0.79279999999999995</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A101">
         <v>6528</v>
       </c>
-      <c r="B76">
+      <c r="B101">
         <v>0.79290000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A102">
         <v>8976</v>
       </c>
-      <c r="B77">
+      <c r="B102">
         <v>0.79310000000000003</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A103">
         <v>3632</v>
       </c>
-      <c r="B78">
+      <c r="B103">
         <v>0.79320000000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A104">
         <v>816</v>
       </c>
-      <c r="B79">
+      <c r="B104">
         <v>0.79320000000000002</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A105">
+        <v>11430</v>
+      </c>
+      <c r="B105">
+        <v>0.79330000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A106">
         <v>8174</v>
       </c>
-      <c r="B80">
+      <c r="B106">
         <v>0.79330000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A107">
         <v>3621</v>
       </c>
-      <c r="B81">
+      <c r="B107">
         <v>0.79339999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A108">
         <v>10614</v>
       </c>
-      <c r="B82">
+      <c r="B108">
         <v>0.79349999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A109">
         <v>4086</v>
       </c>
-      <c r="B83">
+      <c r="B109">
         <v>0.79359999999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A110">
         <v>10622</v>
       </c>
-      <c r="B84">
+      <c r="B110">
         <v>0.79359999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A111">
         <v>6066</v>
       </c>
-      <c r="B85">
+      <c r="B111">
         <v>0.79369999999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A112">
         <v>2808</v>
       </c>
-      <c r="B86">
+      <c r="B112">
         <v>0.79390000000000005</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A113">
         <v>1638</v>
       </c>
-      <c r="B87">
+      <c r="B113">
         <v>0.79390000000000005</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A114">
         <v>360</v>
       </c>
-      <c r="B88">
+      <c r="B114">
         <v>0.79390000000000005</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A115">
         <v>4896</v>
       </c>
-      <c r="B89">
+      <c r="B115">
         <v>0.79390000000000005</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A116">
         <v>6542</v>
       </c>
-      <c r="B90">
+      <c r="B116">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A117">
         <v>2805</v>
       </c>
-      <c r="B91">
+      <c r="B117">
         <v>0.79400000000000004</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A118">
         <v>5718</v>
       </c>
-      <c r="B92">
+      <c r="B118">
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>10148</v>
-      </c>
-      <c r="B93">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94">
-        <v>2807</v>
-      </c>
-      <c r="B94">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95">
-        <v>8165</v>
-      </c>
-      <c r="B95">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96">
-        <v>356</v>
-      </c>
-      <c r="B96">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97">
-        <v>6887</v>
-      </c>
-      <c r="B97">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98">
-        <v>4082</v>
-      </c>
-      <c r="B98">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99">
-        <v>1172</v>
-      </c>
-      <c r="B99">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100">
-        <v>10610</v>
-      </c>
-      <c r="B100">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101">
-        <v>3266</v>
-      </c>
-      <c r="B101">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102">
-        <v>3269</v>
-      </c>
-      <c r="B102">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103">
-        <v>6068</v>
-      </c>
-      <c r="B103">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104">
-        <v>1634</v>
-      </c>
-      <c r="B104">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105">
-        <v>359</v>
-      </c>
-      <c r="B105">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106">
-        <v>10613</v>
-      </c>
-      <c r="B106">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107">
-        <v>8519</v>
-      </c>
-      <c r="B107">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108">
-        <v>6884</v>
-      </c>
-      <c r="B108">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109">
-        <v>4085</v>
-      </c>
-      <c r="B109">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110">
-        <v>7346</v>
-      </c>
-      <c r="B110">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111">
-        <v>5255</v>
-      </c>
-      <c r="B111">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112">
-        <v>4439</v>
-      </c>
-      <c r="B112">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113">
-        <v>10964</v>
-      </c>
-      <c r="B113">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114">
-        <v>818</v>
-      </c>
-      <c r="B114">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115">
-        <v>1991</v>
-      </c>
-      <c r="B115">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116">
-        <v>5717</v>
-      </c>
-      <c r="B116">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117">
-        <v>2804</v>
-      </c>
-      <c r="B117">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118">
-        <v>2453</v>
-      </c>
-      <c r="B118">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>1637</v>
+        <v>11781</v>
       </c>
       <c r="B119">
-        <v>0.79430000000000001</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.79420000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>7700</v>
+        <v>12599</v>
       </c>
       <c r="B120">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>8162</v>
+        <v>10148</v>
       </c>
       <c r="B121">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>7349</v>
+        <v>2807</v>
       </c>
       <c r="B122">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>7703</v>
+        <v>8165</v>
       </c>
       <c r="B123">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>8516</v>
+        <v>11780</v>
       </c>
       <c r="B124">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>2450</v>
+        <v>356</v>
       </c>
       <c r="B125">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>1175</v>
+        <v>6887</v>
       </c>
       <c r="B126">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>9797</v>
+        <v>10967</v>
       </c>
       <c r="B127">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>5</v>
+        <v>4082</v>
       </c>
       <c r="B128">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>5252</v>
+        <v>1172</v>
       </c>
       <c r="B129">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>821</v>
+        <v>10610</v>
       </c>
       <c r="B130">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>2</v>
+        <v>3266</v>
       </c>
       <c r="B131">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>4901</v>
+        <v>3269</v>
       </c>
       <c r="B132">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>1989</v>
+        <v>6068</v>
       </c>
       <c r="B133">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>1988</v>
+        <v>1634</v>
       </c>
       <c r="B134">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>9794</v>
+        <v>359</v>
       </c>
       <c r="B135">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>4898</v>
+        <v>10613</v>
       </c>
       <c r="B136">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>6071</v>
+        <v>8519</v>
       </c>
       <c r="B137">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>4436</v>
+        <v>6884</v>
       </c>
       <c r="B138">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>3620</v>
+        <v>4085</v>
       </c>
       <c r="B139">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>10151</v>
+        <v>7346</v>
       </c>
       <c r="B140">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>8981</v>
+        <v>5255</v>
       </c>
       <c r="B141">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>3623</v>
+        <v>4439</v>
       </c>
       <c r="B142">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>5714</v>
+        <v>10964</v>
       </c>
       <c r="B143">
         <v>0.79430000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
+        <v>818</v>
+      </c>
+      <c r="B144">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A145">
+        <v>1991</v>
+      </c>
+      <c r="B145">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A146">
+        <v>5717</v>
+      </c>
+      <c r="B146">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A147">
+        <v>13412</v>
+      </c>
+      <c r="B147">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A148">
+        <v>2804</v>
+      </c>
+      <c r="B148">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A149">
+        <v>2453</v>
+      </c>
+      <c r="B149">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A150">
+        <v>1637</v>
+      </c>
+      <c r="B150">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A151">
+        <v>7700</v>
+      </c>
+      <c r="B151">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A152">
+        <v>8162</v>
+      </c>
+      <c r="B152">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A153">
+        <v>7349</v>
+      </c>
+      <c r="B153">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A154">
+        <v>11426</v>
+      </c>
+      <c r="B154">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A155">
+        <v>7703</v>
+      </c>
+      <c r="B155">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A156">
+        <v>8516</v>
+      </c>
+      <c r="B156">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A157">
+        <v>2450</v>
+      </c>
+      <c r="B157">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A158">
+        <v>1175</v>
+      </c>
+      <c r="B158">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A159">
+        <v>9797</v>
+      </c>
+      <c r="B159">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A160">
+        <v>5</v>
+      </c>
+      <c r="B160">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A161">
+        <v>5252</v>
+      </c>
+      <c r="B161">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A162">
+        <v>821</v>
+      </c>
+      <c r="B162">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A163">
+        <v>2</v>
+      </c>
+      <c r="B163">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A164">
+        <v>4901</v>
+      </c>
+      <c r="B164">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A165">
+        <v>1989</v>
+      </c>
+      <c r="B165">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A166">
+        <v>1988</v>
+      </c>
+      <c r="B166">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A167">
+        <v>9794</v>
+      </c>
+      <c r="B167">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A168">
+        <v>4898</v>
+      </c>
+      <c r="B168">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A169">
+        <v>6071</v>
+      </c>
+      <c r="B169">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A170">
+        <v>11429</v>
+      </c>
+      <c r="B170">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A171">
+        <v>4436</v>
+      </c>
+      <c r="B171">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A172">
+        <v>3620</v>
+      </c>
+      <c r="B172">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A173">
+        <v>10151</v>
+      </c>
+      <c r="B173">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A174">
+        <v>11783</v>
+      </c>
+      <c r="B174">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A175">
+        <v>8981</v>
+      </c>
+      <c r="B175">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A176">
+        <v>3623</v>
+      </c>
+      <c r="B176">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A177">
+        <v>5714</v>
+      </c>
+      <c r="B177">
+        <v>0.79430000000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A178">
         <v>5715</v>
       </c>
-      <c r="B144">
+      <c r="B178">
         <v>0.7944</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A179">
         <v>3624</v>
       </c>
-      <c r="B145">
+      <c r="B179">
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A180">
         <v>357</v>
       </c>
-      <c r="B146">
+      <c r="B180">
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A181">
         <v>5253</v>
       </c>
-      <c r="B147">
+      <c r="B181">
         <v>0.79449999999999998</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A182">
         <v>1184</v>
       </c>
-      <c r="B148">
+      <c r="B182">
         <v>0.79459999999999997</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A183">
         <v>10611</v>
       </c>
-      <c r="B149">
+      <c r="B183">
         <v>0.79469999999999996</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A184">
         <v>10962</v>
       </c>
-      <c r="B150">
+      <c r="B184">
         <v>0.79500000000000004</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A185">
         <v>5264</v>
       </c>
-      <c r="B151">
+      <c r="B185">
         <v>0.7954</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A186">
+        <v>8990</v>
+      </c>
+      <c r="B186">
+        <v>0.79549999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A187">
+        <v>8166</v>
+      </c>
+      <c r="B187">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A188">
+        <v>822</v>
+      </c>
+      <c r="B188">
+        <v>0.79610000000000003</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A189">
+        <v>6888</v>
+      </c>
+      <c r="B189">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A190">
+        <v>11784</v>
+      </c>
+      <c r="B190">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A191">
+        <v>368</v>
+      </c>
+      <c r="B191">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A192">
+        <v>4080</v>
+      </c>
+      <c r="B192">
+        <v>0.7964</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A193">
+        <v>8514</v>
+      </c>
+      <c r="B193">
+        <v>0.79649999999999999</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A194">
+        <v>1646</v>
+      </c>
+      <c r="B194">
+        <v>0.79690000000000005</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A195">
+        <v>11427</v>
+      </c>
+      <c r="B195">
+        <v>0.79690000000000005</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A196">
+        <v>9332</v>
+      </c>
+      <c r="B196">
+        <v>0.79710000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A197">
+        <v>1992</v>
+      </c>
+      <c r="B197">
+        <v>0.79730000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A198">
+        <v>3</v>
+      </c>
+      <c r="B198">
+        <v>0.79730000000000001</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A199">
+        <v>830</v>
+      </c>
+      <c r="B199">
+        <v>0.79749999999999999</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A200">
+        <v>2802</v>
+      </c>
+      <c r="B200">
+        <v>0.79759999999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>0.80279999999999996</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/统计结果.xlsx
+++ b/assets/统计结果.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\root\trt-elan-nopad\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AFC3A56-B819-403F-A343-1F75D6A25D9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDEAE96-42F7-4595-A85A-E927A0AA2CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{1728DDCB-461D-49D2-AEA3-240403941FC2}"/>
   </bookViews>
@@ -193,607 +193,607 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
+                  <c:v>14691</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6885</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9344</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7698</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8528</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7712</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>9333</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>10976</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8978</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9335</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>6530</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10152</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6533</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6882</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10608</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>8982</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>10146</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>12608</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>12246</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>12254</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>14240</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>13056</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>8520</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>9336</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>4910</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>6531</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>8517</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>9792</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>4083</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>4448</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>1173</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>819</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>3278</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>13062</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>9330</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>13070</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>7344</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>7350</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>9795</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>7347</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>12245</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>12596</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>13058</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>12242</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>13061</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>5256</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>2448</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>6534</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>8160</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>12243</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>11438</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>5250</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>12597</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>2451</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>11792</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>10149</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>6069</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>10160</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>1635</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>9806</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>6072</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>13410</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>1176</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>2462</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>11778</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>10968</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>13059</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>4440</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>4437</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>11424</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>10965</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>2816</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>3267</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>5712</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>3270</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>6896</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>12240</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>4902</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>7701</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>12594</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>2454</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>4094</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>4899</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>8979</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>7358</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>4434</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>9798</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>8163</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>3618</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>6080</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
                   <c:v>1632</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="98">
                   <c:v>1986</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="99">
                   <c:v>5726</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="100">
                   <c:v>3264</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="101">
                   <c:v>7704</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="102">
                   <c:v>6528</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="103">
                   <c:v>8976</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="104">
                   <c:v>3632</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>816</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
                   <c:v>11430</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="107">
                   <c:v>8174</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="108">
                   <c:v>3621</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="109">
                   <c:v>10614</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="110">
                   <c:v>4086</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="111">
                   <c:v>10622</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="112">
                   <c:v>6066</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="113">
                   <c:v>2808</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="114">
                   <c:v>1638</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="115">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="116">
                   <c:v>4896</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="117">
                   <c:v>6542</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
                   <c:v>2805</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="119">
                   <c:v>5718</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="120">
                   <c:v>11781</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="121">
                   <c:v>12599</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="122">
                   <c:v>10148</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="123">
                   <c:v>2807</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="124">
                   <c:v>8165</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="125">
                   <c:v>11780</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="126">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="127">
                   <c:v>6887</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="128">
                   <c:v>10967</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="129">
                   <c:v>4082</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="130">
                   <c:v>1172</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="131">
                   <c:v>10610</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="132">
                   <c:v>3266</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="133">
                   <c:v>3269</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="134">
                   <c:v>6068</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="135">
                   <c:v>1634</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="136">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="137">
                   <c:v>10613</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="138">
                   <c:v>8519</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="139">
                   <c:v>6884</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="140">
                   <c:v>4085</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="141">
                   <c:v>7346</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="142">
                   <c:v>5255</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="143">
                   <c:v>4439</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="144">
                   <c:v>10964</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="145">
                   <c:v>818</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="146">
                   <c:v>1991</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="147">
                   <c:v>5717</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="148">
                   <c:v>13412</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="149">
                   <c:v>2804</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="150">
                   <c:v>2453</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="151">
                   <c:v>1637</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="152">
                   <c:v>7700</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="153">
                   <c:v>8162</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="154">
                   <c:v>7349</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="155">
                   <c:v>11426</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="156">
                   <c:v>7703</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="157">
                   <c:v>8516</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="158">
                   <c:v>2450</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="159">
                   <c:v>1175</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="160">
                   <c:v>9797</c:v>
                 </c:pt>
-                <c:pt idx="159">
+                <c:pt idx="161">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="160">
+                <c:pt idx="162">
                   <c:v>5252</c:v>
                 </c:pt>
-                <c:pt idx="161">
+                <c:pt idx="163">
                   <c:v>821</c:v>
                 </c:pt>
-                <c:pt idx="162">
+                <c:pt idx="164">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="163">
+                <c:pt idx="165">
                   <c:v>4901</c:v>
                 </c:pt>
-                <c:pt idx="164">
+                <c:pt idx="166">
                   <c:v>1989</c:v>
                 </c:pt>
-                <c:pt idx="165">
+                <c:pt idx="167">
                   <c:v>1988</c:v>
                 </c:pt>
-                <c:pt idx="166">
+                <c:pt idx="168">
                   <c:v>9794</c:v>
                 </c:pt>
-                <c:pt idx="167">
+                <c:pt idx="169">
                   <c:v>4898</c:v>
                 </c:pt>
-                <c:pt idx="168">
+                <c:pt idx="170">
                   <c:v>6071</c:v>
                 </c:pt>
-                <c:pt idx="169">
+                <c:pt idx="171">
                   <c:v>11429</c:v>
                 </c:pt>
-                <c:pt idx="170">
+                <c:pt idx="172">
                   <c:v>4436</c:v>
                 </c:pt>
-                <c:pt idx="171">
+                <c:pt idx="173">
                   <c:v>3620</c:v>
                 </c:pt>
-                <c:pt idx="172">
+                <c:pt idx="174">
                   <c:v>10151</c:v>
                 </c:pt>
-                <c:pt idx="173">
+                <c:pt idx="175">
                   <c:v>11783</c:v>
                 </c:pt>
-                <c:pt idx="174">
+                <c:pt idx="176">
                   <c:v>8981</c:v>
                 </c:pt>
-                <c:pt idx="175">
+                <c:pt idx="177">
                   <c:v>3623</c:v>
                 </c:pt>
-                <c:pt idx="176">
+                <c:pt idx="178">
                   <c:v>5714</c:v>
                 </c:pt>
-                <c:pt idx="177">
+                <c:pt idx="179">
                   <c:v>5715</c:v>
                 </c:pt>
-                <c:pt idx="178">
+                <c:pt idx="180">
                   <c:v>3624</c:v>
                 </c:pt>
-                <c:pt idx="179">
+                <c:pt idx="181">
                   <c:v>357</c:v>
                 </c:pt>
-                <c:pt idx="180">
+                <c:pt idx="182">
                   <c:v>5253</c:v>
                 </c:pt>
-                <c:pt idx="181">
+                <c:pt idx="183">
                   <c:v>1184</c:v>
                 </c:pt>
-                <c:pt idx="182">
+                <c:pt idx="184">
                   <c:v>10611</c:v>
                 </c:pt>
-                <c:pt idx="183">
+                <c:pt idx="185">
                   <c:v>10962</c:v>
                 </c:pt>
-                <c:pt idx="184">
+                <c:pt idx="186">
                   <c:v>5264</c:v>
                 </c:pt>
-                <c:pt idx="185">
+                <c:pt idx="187">
                   <c:v>8990</c:v>
                 </c:pt>
-                <c:pt idx="186">
+                <c:pt idx="188">
                   <c:v>8166</c:v>
                 </c:pt>
-                <c:pt idx="187">
+                <c:pt idx="189">
                   <c:v>822</c:v>
                 </c:pt>
-                <c:pt idx="188">
+                <c:pt idx="190">
                   <c:v>6888</c:v>
                 </c:pt>
-                <c:pt idx="189">
+                <c:pt idx="191">
                   <c:v>11784</c:v>
                 </c:pt>
-                <c:pt idx="190">
+                <c:pt idx="192">
                   <c:v>368</c:v>
                 </c:pt>
-                <c:pt idx="191">
+                <c:pt idx="193">
                   <c:v>4080</c:v>
                 </c:pt>
-                <c:pt idx="192">
+                <c:pt idx="194">
                   <c:v>8514</c:v>
                 </c:pt>
-                <c:pt idx="193">
+                <c:pt idx="195">
                   <c:v>1646</c:v>
                 </c:pt>
-                <c:pt idx="194">
+                <c:pt idx="196">
                   <c:v>11427</c:v>
                 </c:pt>
-                <c:pt idx="195">
+                <c:pt idx="197">
                   <c:v>9332</c:v>
                 </c:pt>
-                <c:pt idx="196">
+                <c:pt idx="198">
                   <c:v>1992</c:v>
                 </c:pt>
-                <c:pt idx="197">
+                <c:pt idx="199">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="198">
+                <c:pt idx="200">
                   <c:v>830</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>2802</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -805,28 +805,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="150"/>
                 <c:pt idx="0">
+                  <c:v>0.1636</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.52829999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.53029999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.53120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53190000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.53190000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.53190000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.53220000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.53280000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.53369999999999995</c:v>
@@ -838,97 +838,97 @@
                   <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53510000000000002</c:v>
+                  <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.53510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.53510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.53520000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.53690000000000004</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.53739999999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.54010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.54110000000000003</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.5444</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>0.55189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.78349999999999997</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>0.78559999999999997</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>0.78749999999999998</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>0.78759999999999997</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>0.78779999999999994</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>0.78790000000000004</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>0.78810000000000002</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>0.78839999999999999</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>0.78839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.78869999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78869999999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.78869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.78879999999999995</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>0.78890000000000005</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>0.78890000000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.78910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.78910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0.78920000000000001</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>0.78939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>0.78959999999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.78969999999999996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78969999999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78969999999999996</c:v>
@@ -943,49 +943,49 @@
                   <c:v>0.78969999999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0.78979999999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78990000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78990000000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.78990000000000005</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>0.79010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>0.79010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>0.79020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.7903</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.7903</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.7903</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>0.7903</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.7903</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0.79039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.79049999999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.79049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.79049999999999998</c:v>
@@ -997,58 +997,58 @@
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>0.79049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.79049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>0.79059999999999997</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>0.79069999999999996</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>0.79079999999999995</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>0.79079999999999995</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>0.79090000000000005</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>0.79090000000000005</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>0.79110000000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.7913</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.7913</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.7913</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>0.79159999999999997</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>0.79159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.79169999999999996</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.79169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.79169999999999996</c:v>
@@ -1060,88 +1060,88 @@
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>0.79200000000000004</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>0.7923</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
                   <c:v>0.79269999999999996</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="98">
                   <c:v>0.79269999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.79279999999999995</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.79279999999999995</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>0.79290000000000005</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="103">
                   <c:v>0.79310000000000003</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="104">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
                   <c:v>0.79330000000000001</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="107">
                   <c:v>0.79330000000000001</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="108">
                   <c:v>0.79339999999999999</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="109">
                   <c:v>0.79349999999999998</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="110">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="111">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="112">
                   <c:v>0.79369999999999996</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.79390000000000005</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.79390000000000005</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>0.79390000000000005</c:v>
@@ -1150,22 +1150,22 @@
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
                 <c:pt idx="115">
+                  <c:v>0.79390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.79390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="119">
                   <c:v>0.79420000000000002</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="120">
                   <c:v>0.79420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.79430000000000001</c:v>
@@ -1571,457 +1571,457 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
+                  <c:v>14691</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>6885</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>9344</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>7698</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>8528</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7712</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>9333</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>10976</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8978</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9335</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>6530</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>10152</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>6533</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>6882</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>10608</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>8982</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>10146</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>12608</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>12246</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>12254</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>14240</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>13056</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>8520</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>9336</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>4910</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>6531</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>1170</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>8517</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>9792</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>4083</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="30">
                   <c:v>4448</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>1173</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="32">
                   <c:v>819</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="33">
                   <c:v>3278</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>13062</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>9330</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="36">
                   <c:v>13070</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="37">
                   <c:v>7344</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="38">
                   <c:v>7350</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="39">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>2000</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>9795</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="42">
                   <c:v>7347</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="43">
                   <c:v>12245</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="44">
                   <c:v>12596</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="45">
                   <c:v>13058</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="46">
                   <c:v>12242</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="47">
                   <c:v>13061</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="48">
                   <c:v>5256</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="49">
                   <c:v>2448</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="50">
                   <c:v>12600</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="51">
                   <c:v>6534</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="52">
                   <c:v>8160</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>12243</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>11438</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>5250</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>12597</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="57">
                   <c:v>2451</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="58">
                   <c:v>11792</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="59">
                   <c:v>10149</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="60">
                   <c:v>6069</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="61">
                   <c:v>10160</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="62">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="63">
                   <c:v>1635</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="64">
                   <c:v>9806</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="65">
                   <c:v>6072</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="66">
                   <c:v>13410</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>1176</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>2462</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>11778</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>10968</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>13059</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>4440</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>4437</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>11424</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="75">
                   <c:v>10965</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="76">
                   <c:v>2816</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="77">
                   <c:v>3267</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="78">
                   <c:v>5712</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>354</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>3270</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="82">
                   <c:v>6896</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="83">
                   <c:v>12240</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="84">
                   <c:v>4902</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="85">
                   <c:v>7701</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="86">
                   <c:v>12594</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="87">
                   <c:v>2454</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>4094</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>4899</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>8979</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>7358</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>4434</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>9798</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>8163</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>3618</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>6080</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
                   <c:v>1632</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="98">
                   <c:v>1986</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="99">
                   <c:v>5726</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="100">
                   <c:v>3264</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="101">
                   <c:v>7704</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="102">
                   <c:v>6528</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="103">
                   <c:v>8976</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="104">
                   <c:v>3632</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>816</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
                   <c:v>11430</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="107">
                   <c:v>8174</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="108">
                   <c:v>3621</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="109">
                   <c:v>10614</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="110">
                   <c:v>4086</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="111">
                   <c:v>10622</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="112">
                   <c:v>6066</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="113">
                   <c:v>2808</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="114">
                   <c:v>1638</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="115">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="116">
                   <c:v>4896</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="117">
                   <c:v>6542</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
                   <c:v>2805</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="119">
                   <c:v>5718</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="120">
                   <c:v>11781</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="121">
                   <c:v>12599</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="122">
                   <c:v>10148</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="123">
                   <c:v>2807</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="124">
                   <c:v>8165</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="125">
                   <c:v>11780</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="126">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="127">
                   <c:v>6887</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="128">
                   <c:v>10967</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="129">
                   <c:v>4082</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="130">
                   <c:v>1172</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="131">
                   <c:v>10610</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="132">
                   <c:v>3266</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="133">
                   <c:v>3269</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="134">
                   <c:v>6068</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="135">
                   <c:v>1634</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="136">
                   <c:v>359</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="137">
                   <c:v>10613</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="138">
                   <c:v>8519</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="139">
                   <c:v>6884</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="140">
                   <c:v>4085</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="141">
                   <c:v>7346</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="142">
                   <c:v>5255</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="143">
                   <c:v>4439</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="144">
                   <c:v>10964</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="145">
                   <c:v>818</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="146">
                   <c:v>1991</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="147">
                   <c:v>5717</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="148">
                   <c:v>13412</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="149">
                   <c:v>2804</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="150">
                   <c:v>2453</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1637</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7700</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,28 +2033,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="151"/>
                 <c:pt idx="0">
+                  <c:v>0.1636</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>0.52829999999999999</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>0.53029999999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.53120000000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53190000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.53190000000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>0.53190000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.53220000000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>0.53280000000000005</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.53369999999999995</c:v>
@@ -2066,97 +2066,97 @@
                   <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.53510000000000002</c:v>
+                  <c:v>0.53369999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0.53510000000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.53510000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>0.53520000000000001</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>0.53690000000000004</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>0.53739999999999999</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>0.54010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>0.54110000000000003</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>0.5444</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
+                  <c:v>0.55189999999999995</c:v>
+                </c:pt>
+                <c:pt idx="21">
                   <c:v>0.78349999999999997</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="22">
                   <c:v>0.78559999999999997</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="23">
                   <c:v>0.78749999999999998</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="24">
                   <c:v>0.78759999999999997</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>0.78779999999999994</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
                   <c:v>0.78790000000000004</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>0.78810000000000002</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="28">
                   <c:v>0.78839999999999999</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="29">
                   <c:v>0.78839999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.78869999999999996</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78869999999999996</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0.78869999999999996</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0.78869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.78869999999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0.78879999999999995</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="34">
                   <c:v>0.78890000000000005</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="35">
                   <c:v>0.78890000000000005</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.78910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.78910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0.78910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.78910000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
                   <c:v>0.78920000000000001</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="40">
                   <c:v>0.78939999999999999</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="41">
                   <c:v>0.78959999999999997</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.78969999999999996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.78969999999999996</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>0.78969999999999996</c:v>
@@ -2171,49 +2171,49 @@
                   <c:v>0.78969999999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.78969999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0.78979999999999995</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.78990000000000005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.78990000000000005</c:v>
                 </c:pt>
                 <c:pt idx="49">
                   <c:v>0.78990000000000005</c:v>
                 </c:pt>
                 <c:pt idx="50">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.78990000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="53">
                   <c:v>0.79</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="54">
                   <c:v>0.79010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="55">
                   <c:v>0.79010000000000002</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="56">
                   <c:v>0.79020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.7903</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.7903</c:v>
                 </c:pt>
                 <c:pt idx="57">
                   <c:v>0.7903</c:v>
                 </c:pt>
                 <c:pt idx="58">
+                  <c:v>0.7903</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.7903</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0.79039999999999999</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.79049999999999998</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.79049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>0.79049999999999998</c:v>
@@ -2225,58 +2225,58 @@
                   <c:v>0.79049999999999998</c:v>
                 </c:pt>
                 <c:pt idx="64">
+                  <c:v>0.79049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.79049999999999998</c:v>
+                </c:pt>
+                <c:pt idx="66">
                   <c:v>0.79059999999999997</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="67">
                   <c:v>0.79069999999999996</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="68">
                   <c:v>0.79079999999999995</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="69">
                   <c:v>0.79079999999999995</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="70">
                   <c:v>0.79090000000000005</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="71">
                   <c:v>0.79090000000000005</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="72">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="73">
                   <c:v>0.79100000000000004</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="74">
                   <c:v>0.79110000000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.7913</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.7913</c:v>
                 </c:pt>
                 <c:pt idx="75">
                   <c:v>0.7913</c:v>
                 </c:pt>
                 <c:pt idx="76">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.7913</c:v>
+                </c:pt>
+                <c:pt idx="78">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="79">
                   <c:v>0.79149999999999998</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="80">
                   <c:v>0.79159999999999997</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="81">
                   <c:v>0.79159999999999997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.79169999999999996</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.79169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>0.79169999999999996</c:v>
@@ -2288,88 +2288,88 @@
                   <c:v>0.79169999999999996</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.79169999999999996</c:v>
+                </c:pt>
+                <c:pt idx="87">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="88">
                   <c:v>0.79190000000000005</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="89">
                   <c:v>0.79200000000000004</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="90">
                   <c:v>0.7923</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="91">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="92">
                   <c:v>0.79239999999999999</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="93">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="94">
                   <c:v>0.79249999999999998</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="95">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="96">
                   <c:v>0.79259999999999997</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="97">
                   <c:v>0.79269999999999996</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="98">
                   <c:v>0.79269999999999996</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.79279999999999995</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.79279999999999995</c:v>
                 </c:pt>
                 <c:pt idx="99">
                   <c:v>0.79279999999999995</c:v>
                 </c:pt>
                 <c:pt idx="100">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.79279999999999995</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>0.79290000000000005</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="103">
                   <c:v>0.79310000000000003</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="104">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="105">
                   <c:v>0.79320000000000002</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="106">
                   <c:v>0.79330000000000001</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="107">
                   <c:v>0.79330000000000001</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="108">
                   <c:v>0.79339999999999999</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="109">
                   <c:v>0.79349999999999998</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="110">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="111">
                   <c:v>0.79359999999999997</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="112">
                   <c:v>0.79369999999999996</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.79390000000000005</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.79390000000000005</c:v>
                 </c:pt>
                 <c:pt idx="113">
                   <c:v>0.79390000000000005</c:v>
@@ -2378,22 +2378,22 @@
                   <c:v>0.79390000000000005</c:v>
                 </c:pt>
                 <c:pt idx="115">
+                  <c:v>0.79390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.79390000000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="118">
                   <c:v>0.79400000000000004</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="119">
                   <c:v>0.79420000000000002</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="120">
                   <c:v>0.79420000000000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.79430000000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.79430000000000001</c:v>
                 </c:pt>
                 <c:pt idx="121">
                   <c:v>0.79430000000000001</c:v>
@@ -4289,46 +4289,46 @@
   <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:B201"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1">
-        <v>6885</v>
+        <v>14691</v>
       </c>
       <c r="B1">
-        <v>0.52829999999999999</v>
+        <v>0.1636</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>9344</v>
+        <v>6885</v>
       </c>
       <c r="B2">
-        <v>0.53029999999999999</v>
+        <v>0.52829999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>7698</v>
+        <v>9344</v>
       </c>
       <c r="B3">
-        <v>0.53120000000000001</v>
+        <v>0.53029999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>8528</v>
+        <v>7698</v>
       </c>
       <c r="B4">
-        <v>0.53190000000000004</v>
+        <v>0.53120000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7712</v>
+        <v>8528</v>
       </c>
       <c r="B5">
         <v>0.53190000000000004</v>
@@ -4336,31 +4336,31 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>9333</v>
+        <v>7712</v>
       </c>
       <c r="B6">
-        <v>0.53220000000000001</v>
+        <v>0.53190000000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>10976</v>
+        <v>9333</v>
       </c>
       <c r="B7">
-        <v>0.53280000000000005</v>
+        <v>0.53220000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>8978</v>
+        <v>10976</v>
       </c>
       <c r="B8">
-        <v>0.53369999999999995</v>
+        <v>0.53280000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>9335</v>
+        <v>8978</v>
       </c>
       <c r="B9">
         <v>0.53369999999999995</v>
@@ -4368,7 +4368,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>6530</v>
+        <v>9335</v>
       </c>
       <c r="B10">
         <v>0.53369999999999995</v>
@@ -4376,7 +4376,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>10152</v>
+        <v>6530</v>
       </c>
       <c r="B11">
         <v>0.53369999999999995</v>
@@ -4384,15 +4384,15 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>6533</v>
+        <v>10152</v>
       </c>
       <c r="B12">
-        <v>0.53510000000000002</v>
+        <v>0.53369999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>6882</v>
+        <v>6533</v>
       </c>
       <c r="B13">
         <v>0.53510000000000002</v>
@@ -4400,143 +4400,143 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>10608</v>
+        <v>6882</v>
       </c>
       <c r="B14">
-        <v>0.53520000000000001</v>
+        <v>0.53510000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>8982</v>
+        <v>10608</v>
       </c>
       <c r="B15">
-        <v>0.53690000000000004</v>
+        <v>0.53520000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>10146</v>
+        <v>8982</v>
       </c>
       <c r="B16">
-        <v>0.53739999999999999</v>
+        <v>0.53690000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>12608</v>
+        <v>10146</v>
       </c>
       <c r="B17">
-        <v>0.54010000000000002</v>
+        <v>0.53739999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>12246</v>
+        <v>12608</v>
       </c>
       <c r="B18">
-        <v>0.54110000000000003</v>
+        <v>0.54010000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>12254</v>
+        <v>12246</v>
       </c>
       <c r="B19">
-        <v>0.5444</v>
+        <v>0.54110000000000003</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>13056</v>
+        <v>12254</v>
       </c>
       <c r="B20">
-        <v>0.78349999999999997</v>
+        <v>0.5444</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>8520</v>
+        <v>14240</v>
       </c>
       <c r="B21">
-        <v>0.78559999999999997</v>
+        <v>0.55189999999999995</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>9336</v>
+        <v>13056</v>
       </c>
       <c r="B22">
-        <v>0.78749999999999998</v>
+        <v>0.78349999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>4910</v>
+        <v>8520</v>
       </c>
       <c r="B23">
-        <v>0.78759999999999997</v>
+        <v>0.78559999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>6531</v>
+        <v>9336</v>
       </c>
       <c r="B24">
-        <v>0.78779999999999994</v>
+        <v>0.78749999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>1170</v>
+        <v>4910</v>
       </c>
       <c r="B25">
-        <v>0.78790000000000004</v>
+        <v>0.78759999999999997</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>8517</v>
+        <v>6531</v>
       </c>
       <c r="B26">
-        <v>0.78810000000000002</v>
+        <v>0.78779999999999994</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>9792</v>
+        <v>1170</v>
       </c>
       <c r="B27">
-        <v>0.78839999999999999</v>
+        <v>0.78790000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>4083</v>
+        <v>8517</v>
       </c>
       <c r="B28">
-        <v>0.78839999999999999</v>
+        <v>0.78810000000000002</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>4448</v>
+        <v>9792</v>
       </c>
       <c r="B29">
-        <v>0.78869999999999996</v>
+        <v>0.78839999999999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>1173</v>
+        <v>4083</v>
       </c>
       <c r="B30">
-        <v>0.78869999999999996</v>
+        <v>0.78839999999999999</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>819</v>
+        <v>4448</v>
       </c>
       <c r="B31">
         <v>0.78869999999999996</v>
@@ -4544,47 +4544,47 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
-        <v>3278</v>
+        <v>1173</v>
       </c>
       <c r="B32">
-        <v>0.78879999999999995</v>
+        <v>0.78869999999999996</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
-        <v>13062</v>
+        <v>819</v>
       </c>
       <c r="B33">
-        <v>0.78890000000000005</v>
+        <v>0.78869999999999996</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
-        <v>9330</v>
+        <v>3278</v>
       </c>
       <c r="B34">
-        <v>0.78890000000000005</v>
+        <v>0.78879999999999995</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
-        <v>13070</v>
+        <v>13062</v>
       </c>
       <c r="B35">
-        <v>0.78910000000000002</v>
+        <v>0.78890000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
-        <v>7344</v>
+        <v>9330</v>
       </c>
       <c r="B36">
-        <v>0.78910000000000002</v>
+        <v>0.78890000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
-        <v>7350</v>
+        <v>13070</v>
       </c>
       <c r="B37">
         <v>0.78910000000000002</v>
@@ -4592,47 +4592,47 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
-        <v>1</v>
+        <v>7344</v>
       </c>
       <c r="B38">
-        <v>0.78920000000000001</v>
+        <v>0.78910000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
-        <v>2000</v>
+        <v>7350</v>
       </c>
       <c r="B39">
-        <v>0.78939999999999999</v>
+        <v>0.78910000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
-        <v>9795</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>0.78959999999999997</v>
+        <v>0.78920000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
-        <v>7347</v>
+        <v>2000</v>
       </c>
       <c r="B41">
-        <v>0.78969999999999996</v>
+        <v>0.78939999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
-        <v>12245</v>
+        <v>9795</v>
       </c>
       <c r="B42">
-        <v>0.78969999999999996</v>
+        <v>0.78959999999999997</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
-        <v>12596</v>
+        <v>7347</v>
       </c>
       <c r="B43">
         <v>0.78969999999999996</v>
@@ -4640,7 +4640,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
-        <v>13058</v>
+        <v>12245</v>
       </c>
       <c r="B44">
         <v>0.78969999999999996</v>
@@ -4648,7 +4648,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
-        <v>12242</v>
+        <v>12596</v>
       </c>
       <c r="B45">
         <v>0.78969999999999996</v>
@@ -4656,7 +4656,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
-        <v>13061</v>
+        <v>13058</v>
       </c>
       <c r="B46">
         <v>0.78969999999999996</v>
@@ -4664,31 +4664,31 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
-        <v>5256</v>
+        <v>12242</v>
       </c>
       <c r="B47">
-        <v>0.78979999999999995</v>
+        <v>0.78969999999999996</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
-        <v>2448</v>
+        <v>13061</v>
       </c>
       <c r="B48">
-        <v>0.78990000000000005</v>
+        <v>0.78969999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
-        <v>12600</v>
+        <v>5256</v>
       </c>
       <c r="B49">
-        <v>0.78990000000000005</v>
+        <v>0.78979999999999995</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
-        <v>6534</v>
+        <v>2448</v>
       </c>
       <c r="B50">
         <v>0.78990000000000005</v>
@@ -4696,63 +4696,63 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
-        <v>8160</v>
+        <v>12600</v>
       </c>
       <c r="B51">
-        <v>0.79</v>
+        <v>0.78990000000000005</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
-        <v>12243</v>
+        <v>6534</v>
       </c>
       <c r="B52">
-        <v>0.79</v>
+        <v>0.78990000000000005</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
-        <v>11438</v>
+        <v>8160</v>
       </c>
       <c r="B53">
-        <v>0.79010000000000002</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
-        <v>5250</v>
+        <v>12243</v>
       </c>
       <c r="B54">
-        <v>0.79010000000000002</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
-        <v>12597</v>
+        <v>11438</v>
       </c>
       <c r="B55">
-        <v>0.79020000000000001</v>
+        <v>0.79010000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
-        <v>2451</v>
+        <v>5250</v>
       </c>
       <c r="B56">
-        <v>0.7903</v>
+        <v>0.79010000000000002</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
-        <v>11792</v>
+        <v>12597</v>
       </c>
       <c r="B57">
-        <v>0.7903</v>
+        <v>0.79020000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
-        <v>10149</v>
+        <v>2451</v>
       </c>
       <c r="B58">
         <v>0.7903</v>
@@ -4760,31 +4760,31 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
-        <v>6069</v>
+        <v>11792</v>
       </c>
       <c r="B59">
-        <v>0.79039999999999999</v>
+        <v>0.7903</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
-        <v>10160</v>
+        <v>10149</v>
       </c>
       <c r="B60">
-        <v>0.79049999999999998</v>
+        <v>0.7903</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
-        <v>14</v>
+        <v>6069</v>
       </c>
       <c r="B61">
-        <v>0.79049999999999998</v>
+        <v>0.79039999999999999</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
-        <v>1635</v>
+        <v>10160</v>
       </c>
       <c r="B62">
         <v>0.79049999999999998</v>
@@ -4792,7 +4792,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
-        <v>9806</v>
+        <v>14</v>
       </c>
       <c r="B63">
         <v>0.79049999999999998</v>
@@ -4800,7 +4800,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
-        <v>6072</v>
+        <v>1635</v>
       </c>
       <c r="B64">
         <v>0.79049999999999998</v>
@@ -4808,95 +4808,95 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
-        <v>13410</v>
+        <v>9806</v>
       </c>
       <c r="B65">
-        <v>0.79059999999999997</v>
+        <v>0.79049999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
-        <v>1176</v>
+        <v>6072</v>
       </c>
       <c r="B66">
-        <v>0.79069999999999996</v>
+        <v>0.79049999999999998</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
-        <v>2462</v>
+        <v>13410</v>
       </c>
       <c r="B67">
-        <v>0.79079999999999995</v>
+        <v>0.79059999999999997</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
-        <v>11778</v>
+        <v>1176</v>
       </c>
       <c r="B68">
-        <v>0.79079999999999995</v>
+        <v>0.79069999999999996</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
-        <v>10968</v>
+        <v>2462</v>
       </c>
       <c r="B69">
-        <v>0.79090000000000005</v>
+        <v>0.79079999999999995</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
-        <v>13059</v>
+        <v>11778</v>
       </c>
       <c r="B70">
-        <v>0.79090000000000005</v>
+        <v>0.79079999999999995</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
-        <v>4440</v>
+        <v>10968</v>
       </c>
       <c r="B71">
-        <v>0.79100000000000004</v>
+        <v>0.79090000000000005</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
-        <v>4437</v>
+        <v>13059</v>
       </c>
       <c r="B72">
-        <v>0.79100000000000004</v>
+        <v>0.79090000000000005</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
-        <v>11424</v>
+        <v>4440</v>
       </c>
       <c r="B73">
-        <v>0.79110000000000003</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
-        <v>10965</v>
+        <v>4437</v>
       </c>
       <c r="B74">
-        <v>0.7913</v>
+        <v>0.79100000000000004</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
-        <v>2816</v>
+        <v>11424</v>
       </c>
       <c r="B75">
-        <v>0.7913</v>
+        <v>0.79110000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
-        <v>3267</v>
+        <v>10965</v>
       </c>
       <c r="B76">
         <v>0.7913</v>
@@ -4904,55 +4904,55 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
-        <v>5712</v>
+        <v>2816</v>
       </c>
       <c r="B77">
-        <v>0.79149999999999998</v>
+        <v>0.7913</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
-        <v>6</v>
+        <v>3267</v>
       </c>
       <c r="B78">
-        <v>0.79149999999999998</v>
+        <v>0.7913</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
-        <v>354</v>
+        <v>5712</v>
       </c>
       <c r="B79">
-        <v>0.79159999999999997</v>
+        <v>0.79149999999999998</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
-        <v>3270</v>
+        <v>6</v>
       </c>
       <c r="B80">
-        <v>0.79159999999999997</v>
+        <v>0.79149999999999998</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
-        <v>6896</v>
+        <v>354</v>
       </c>
       <c r="B81">
-        <v>0.79169999999999996</v>
+        <v>0.79159999999999997</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
-        <v>12240</v>
+        <v>3270</v>
       </c>
       <c r="B82">
-        <v>0.79169999999999996</v>
+        <v>0.79159999999999997</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
-        <v>4902</v>
+        <v>6896</v>
       </c>
       <c r="B83">
         <v>0.79169999999999996</v>
@@ -4960,7 +4960,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
-        <v>7701</v>
+        <v>12240</v>
       </c>
       <c r="B84">
         <v>0.79169999999999996</v>
@@ -4968,7 +4968,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
-        <v>12594</v>
+        <v>4902</v>
       </c>
       <c r="B85">
         <v>0.79169999999999996</v>
@@ -4976,119 +4976,119 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
-        <v>2454</v>
+        <v>7701</v>
       </c>
       <c r="B86">
-        <v>0.79190000000000005</v>
+        <v>0.79169999999999996</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
-        <v>4094</v>
+        <v>12594</v>
       </c>
       <c r="B87">
-        <v>0.79190000000000005</v>
+        <v>0.79169999999999996</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
-        <v>4899</v>
+        <v>2454</v>
       </c>
       <c r="B88">
-        <v>0.79200000000000004</v>
+        <v>0.79190000000000005</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
-        <v>8979</v>
+        <v>4094</v>
       </c>
       <c r="B89">
-        <v>0.7923</v>
+        <v>0.79190000000000005</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
-        <v>7358</v>
+        <v>4899</v>
       </c>
       <c r="B90">
-        <v>0.79239999999999999</v>
+        <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
-        <v>4434</v>
+        <v>8979</v>
       </c>
       <c r="B91">
-        <v>0.79239999999999999</v>
+        <v>0.7923</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
-        <v>9798</v>
+        <v>7358</v>
       </c>
       <c r="B92">
-        <v>0.79249999999999998</v>
+        <v>0.79239999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
-        <v>8163</v>
+        <v>4434</v>
       </c>
       <c r="B93">
-        <v>0.79249999999999998</v>
+        <v>0.79239999999999999</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
-        <v>3618</v>
+        <v>9798</v>
       </c>
       <c r="B94">
-        <v>0.79259999999999997</v>
+        <v>0.79249999999999998</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
-        <v>6080</v>
+        <v>8163</v>
       </c>
       <c r="B95">
-        <v>0.79259999999999997</v>
+        <v>0.79249999999999998</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
-        <v>1632</v>
+        <v>3618</v>
       </c>
       <c r="B96">
-        <v>0.79269999999999996</v>
+        <v>0.79259999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
-        <v>1986</v>
+        <v>6080</v>
       </c>
       <c r="B97">
-        <v>0.79269999999999996</v>
+        <v>0.79259999999999997</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
-        <v>5726</v>
+        <v>1632</v>
       </c>
       <c r="B98">
-        <v>0.79279999999999995</v>
+        <v>0.79269999999999996</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
-        <v>3264</v>
+        <v>1986</v>
       </c>
       <c r="B99">
-        <v>0.79279999999999995</v>
+        <v>0.79269999999999996</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
-        <v>7704</v>
+        <v>5726</v>
       </c>
       <c r="B100">
         <v>0.79279999999999995</v>
@@ -5096,111 +5096,111 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
-        <v>6528</v>
+        <v>3264</v>
       </c>
       <c r="B101">
-        <v>0.79290000000000005</v>
+        <v>0.79279999999999995</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
-        <v>8976</v>
+        <v>7704</v>
       </c>
       <c r="B102">
-        <v>0.79310000000000003</v>
+        <v>0.79279999999999995</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
-        <v>3632</v>
+        <v>6528</v>
       </c>
       <c r="B103">
-        <v>0.79320000000000002</v>
+        <v>0.79290000000000005</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
-        <v>816</v>
+        <v>8976</v>
       </c>
       <c r="B104">
-        <v>0.79320000000000002</v>
+        <v>0.79310000000000003</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
-        <v>11430</v>
+        <v>3632</v>
       </c>
       <c r="B105">
-        <v>0.79330000000000001</v>
+        <v>0.79320000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
-        <v>8174</v>
+        <v>816</v>
       </c>
       <c r="B106">
-        <v>0.79330000000000001</v>
+        <v>0.79320000000000002</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
-        <v>3621</v>
+        <v>11430</v>
       </c>
       <c r="B107">
-        <v>0.79339999999999999</v>
+        <v>0.79330000000000001</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
-        <v>10614</v>
+        <v>8174</v>
       </c>
       <c r="B108">
-        <v>0.79349999999999998</v>
+        <v>0.79330000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
-        <v>4086</v>
+        <v>3621</v>
       </c>
       <c r="B109">
-        <v>0.79359999999999997</v>
+        <v>0.79339999999999999</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
-        <v>10622</v>
+        <v>10614</v>
       </c>
       <c r="B110">
-        <v>0.79359999999999997</v>
+        <v>0.79349999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
-        <v>6066</v>
+        <v>4086</v>
       </c>
       <c r="B111">
-        <v>0.79369999999999996</v>
+        <v>0.79359999999999997</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
-        <v>2808</v>
+        <v>10622</v>
       </c>
       <c r="B112">
-        <v>0.79390000000000005</v>
+        <v>0.79359999999999997</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
-        <v>1638</v>
+        <v>6066</v>
       </c>
       <c r="B113">
-        <v>0.79390000000000005</v>
+        <v>0.79369999999999996</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
-        <v>360</v>
+        <v>2808</v>
       </c>
       <c r="B114">
         <v>0.79390000000000005</v>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
-        <v>4896</v>
+        <v>1638</v>
       </c>
       <c r="B115">
         <v>0.79390000000000005</v>
@@ -5216,55 +5216,55 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
-        <v>6542</v>
+        <v>360</v>
       </c>
       <c r="B116">
-        <v>0.79400000000000004</v>
+        <v>0.79390000000000005</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
-        <v>2805</v>
+        <v>4896</v>
       </c>
       <c r="B117">
-        <v>0.79400000000000004</v>
+        <v>0.79390000000000005</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
-        <v>5718</v>
+        <v>6542</v>
       </c>
       <c r="B118">
-        <v>0.79420000000000002</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
-        <v>11781</v>
+        <v>2805</v>
       </c>
       <c r="B119">
-        <v>0.79420000000000002</v>
+        <v>0.79400000000000004</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
-        <v>12599</v>
+        <v>5718</v>
       </c>
       <c r="B120">
-        <v>0.79430000000000001</v>
+        <v>0.79420000000000002</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
-        <v>10148</v>
+        <v>11781</v>
       </c>
       <c r="B121">
-        <v>0.79430000000000001</v>
+        <v>0.79420000000000002</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
-        <v>2807</v>
+        <v>12599</v>
       </c>
       <c r="B122">
         <v>0.79430000000000001</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
-        <v>8165</v>
+        <v>10148</v>
       </c>
       <c r="B123">
         <v>0.79430000000000001</v>
@@ -5280,7 +5280,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
-        <v>11780</v>
+        <v>2807</v>
       </c>
       <c r="B124">
         <v>0.79430000000000001</v>
@@ -5288,7 +5288,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
-        <v>356</v>
+        <v>8165</v>
       </c>
       <c r="B125">
         <v>0.79430000000000001</v>
@@ -5296,7 +5296,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
-        <v>6887</v>
+        <v>11780</v>
       </c>
       <c r="B126">
         <v>0.79430000000000001</v>
@@ -5304,7 +5304,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
-        <v>10967</v>
+        <v>356</v>
       </c>
       <c r="B127">
         <v>0.79430000000000001</v>
@@ -5312,7 +5312,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
-        <v>4082</v>
+        <v>6887</v>
       </c>
       <c r="B128">
         <v>0.79430000000000001</v>
@@ -5320,7 +5320,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
-        <v>1172</v>
+        <v>10967</v>
       </c>
       <c r="B129">
         <v>0.79430000000000001</v>
@@ -5328,7 +5328,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
-        <v>10610</v>
+        <v>4082</v>
       </c>
       <c r="B130">
         <v>0.79430000000000001</v>
@@ -5336,7 +5336,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
-        <v>3266</v>
+        <v>1172</v>
       </c>
       <c r="B131">
         <v>0.79430000000000001</v>
@@ -5344,7 +5344,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
-        <v>3269</v>
+        <v>10610</v>
       </c>
       <c r="B132">
         <v>0.79430000000000001</v>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
-        <v>6068</v>
+        <v>3266</v>
       </c>
       <c r="B133">
         <v>0.79430000000000001</v>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
-        <v>1634</v>
+        <v>3269</v>
       </c>
       <c r="B134">
         <v>0.79430000000000001</v>
@@ -5368,7 +5368,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
-        <v>359</v>
+        <v>6068</v>
       </c>
       <c r="B135">
         <v>0.79430000000000001</v>
@@ -5376,7 +5376,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
-        <v>10613</v>
+        <v>1634</v>
       </c>
       <c r="B136">
         <v>0.79430000000000001</v>
@@ -5384,7 +5384,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
-        <v>8519</v>
+        <v>359</v>
       </c>
       <c r="B137">
         <v>0.79430000000000001</v>
@@ -5392,7 +5392,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
-        <v>6884</v>
+        <v>10613</v>
       </c>
       <c r="B138">
         <v>0.79430000000000001</v>
@@ -5400,7 +5400,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
-        <v>4085</v>
+        <v>8519</v>
       </c>
       <c r="B139">
         <v>0.79430000000000001</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
-        <v>7346</v>
+        <v>6884</v>
       </c>
       <c r="B140">
         <v>0.79430000000000001</v>
@@ -5416,7 +5416,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
-        <v>5255</v>
+        <v>4085</v>
       </c>
       <c r="B141">
         <v>0.79430000000000001</v>
@@ -5424,7 +5424,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
-        <v>4439</v>
+        <v>7346</v>
       </c>
       <c r="B142">
         <v>0.79430000000000001</v>
@@ -5432,7 +5432,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
-        <v>10964</v>
+        <v>5255</v>
       </c>
       <c r="B143">
         <v>0.79430000000000001</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
-        <v>818</v>
+        <v>4439</v>
       </c>
       <c r="B144">
         <v>0.79430000000000001</v>
@@ -5448,7 +5448,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
-        <v>1991</v>
+        <v>10964</v>
       </c>
       <c r="B145">
         <v>0.79430000000000001</v>
@@ -5456,7 +5456,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
-        <v>5717</v>
+        <v>818</v>
       </c>
       <c r="B146">
         <v>0.79430000000000001</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
-        <v>13412</v>
+        <v>1991</v>
       </c>
       <c r="B147">
         <v>0.79430000000000001</v>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
-        <v>2804</v>
+        <v>5717</v>
       </c>
       <c r="B148">
         <v>0.79430000000000001</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
-        <v>2453</v>
+        <v>13412</v>
       </c>
       <c r="B149">
         <v>0.79430000000000001</v>
@@ -5488,7 +5488,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
-        <v>1637</v>
+        <v>2804</v>
       </c>
       <c r="B150">
         <v>0.79430000000000001</v>
@@ -5496,7 +5496,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
-        <v>7700</v>
+        <v>2453</v>
       </c>
       <c r="B151">
         <v>0.79430000000000001</v>
@@ -5504,7 +5504,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
-        <v>8162</v>
+        <v>1637</v>
       </c>
       <c r="B152">
         <v>0.79430000000000001</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
-        <v>7349</v>
+        <v>7700</v>
       </c>
       <c r="B153">
         <v>0.79430000000000001</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
-        <v>11426</v>
+        <v>8162</v>
       </c>
       <c r="B154">
         <v>0.79430000000000001</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155">
-        <v>7703</v>
+        <v>7349</v>
       </c>
       <c r="B155">
         <v>0.79430000000000001</v>
@@ -5536,7 +5536,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156">
-        <v>8516</v>
+        <v>11426</v>
       </c>
       <c r="B156">
         <v>0.79430000000000001</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157">
-        <v>2450</v>
+        <v>7703</v>
       </c>
       <c r="B157">
         <v>0.79430000000000001</v>
@@ -5552,7 +5552,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158">
-        <v>1175</v>
+        <v>8516</v>
       </c>
       <c r="B158">
         <v>0.79430000000000001</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159">
-        <v>9797</v>
+        <v>2450</v>
       </c>
       <c r="B159">
         <v>0.79430000000000001</v>
@@ -5568,7 +5568,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160">
-        <v>5</v>
+        <v>1175</v>
       </c>
       <c r="B160">
         <v>0.79430000000000001</v>
@@ -5576,7 +5576,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161">
-        <v>5252</v>
+        <v>9797</v>
       </c>
       <c r="B161">
         <v>0.79430000000000001</v>
@@ -5584,7 +5584,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162">
-        <v>821</v>
+        <v>5</v>
       </c>
       <c r="B162">
         <v>0.79430000000000001</v>
@@ -5592,7 +5592,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163">
-        <v>2</v>
+        <v>5252</v>
       </c>
       <c r="B163">
         <v>0.79430000000000001</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164">
-        <v>4901</v>
+        <v>821</v>
       </c>
       <c r="B164">
         <v>0.79430000000000001</v>
@@ -5608,7 +5608,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165">
-        <v>1989</v>
+        <v>2</v>
       </c>
       <c r="B165">
         <v>0.79430000000000001</v>
@@ -5616,7 +5616,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166">
-        <v>1988</v>
+        <v>4901</v>
       </c>
       <c r="B166">
         <v>0.79430000000000001</v>
@@ -5624,7 +5624,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167">
-        <v>9794</v>
+        <v>1989</v>
       </c>
       <c r="B167">
         <v>0.79430000000000001</v>
@@ -5632,7 +5632,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168">
-        <v>4898</v>
+        <v>1988</v>
       </c>
       <c r="B168">
         <v>0.79430000000000001</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169">
-        <v>6071</v>
+        <v>9794</v>
       </c>
       <c r="B169">
         <v>0.79430000000000001</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170">
-        <v>11429</v>
+        <v>4898</v>
       </c>
       <c r="B170">
         <v>0.79430000000000001</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171">
-        <v>4436</v>
+        <v>6071</v>
       </c>
       <c r="B171">
         <v>0.79430000000000001</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172">
-        <v>3620</v>
+        <v>11429</v>
       </c>
       <c r="B172">
         <v>0.79430000000000001</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173">
-        <v>10151</v>
+        <v>4436</v>
       </c>
       <c r="B173">
         <v>0.79430000000000001</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174">
-        <v>11783</v>
+        <v>3620</v>
       </c>
       <c r="B174">
         <v>0.79430000000000001</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175">
-        <v>8981</v>
+        <v>10151</v>
       </c>
       <c r="B175">
         <v>0.79430000000000001</v>
@@ -5696,7 +5696,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176">
-        <v>3623</v>
+        <v>11783</v>
       </c>
       <c r="B176">
         <v>0.79430000000000001</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177">
-        <v>5714</v>
+        <v>8981</v>
       </c>
       <c r="B177">
         <v>0.79430000000000001</v>
@@ -5712,31 +5712,31 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178">
-        <v>5715</v>
+        <v>3623</v>
       </c>
       <c r="B178">
-        <v>0.7944</v>
+        <v>0.79430000000000001</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179">
-        <v>3624</v>
+        <v>5714</v>
       </c>
       <c r="B179">
-        <v>0.79449999999999998</v>
+        <v>0.79430000000000001</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180">
-        <v>357</v>
+        <v>5715</v>
       </c>
       <c r="B180">
-        <v>0.79449999999999998</v>
+        <v>0.7944</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181">
-        <v>5253</v>
+        <v>3624</v>
       </c>
       <c r="B181">
         <v>0.79449999999999998</v>
@@ -5744,79 +5744,79 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182">
-        <v>1184</v>
+        <v>357</v>
       </c>
       <c r="B182">
-        <v>0.79459999999999997</v>
+        <v>0.79449999999999998</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183">
-        <v>10611</v>
+        <v>5253</v>
       </c>
       <c r="B183">
-        <v>0.79469999999999996</v>
+        <v>0.79449999999999998</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184">
-        <v>10962</v>
+        <v>1184</v>
       </c>
       <c r="B184">
-        <v>0.79500000000000004</v>
+        <v>0.79459999999999997</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185">
-        <v>5264</v>
+        <v>10611</v>
       </c>
       <c r="B185">
-        <v>0.7954</v>
+        <v>0.79469999999999996</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186">
-        <v>8990</v>
+        <v>10962</v>
       </c>
       <c r="B186">
-        <v>0.79549999999999998</v>
+        <v>0.79500000000000004</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187">
-        <v>8166</v>
+        <v>5264</v>
       </c>
       <c r="B187">
-        <v>0.79610000000000003</v>
+        <v>0.7954</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188">
-        <v>822</v>
+        <v>8990</v>
       </c>
       <c r="B188">
-        <v>0.79610000000000003</v>
+        <v>0.79549999999999998</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189">
-        <v>6888</v>
+        <v>8166</v>
       </c>
       <c r="B189">
-        <v>0.7964</v>
+        <v>0.79610000000000003</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190">
-        <v>11784</v>
+        <v>822</v>
       </c>
       <c r="B190">
-        <v>0.7964</v>
+        <v>0.79610000000000003</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191">
-        <v>368</v>
+        <v>6888</v>
       </c>
       <c r="B191">
         <v>0.7964</v>
@@ -5824,7 +5824,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192">
-        <v>4080</v>
+        <v>11784</v>
       </c>
       <c r="B192">
         <v>0.7964</v>
@@ -5832,74 +5832,74 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193">
-        <v>8514</v>
+        <v>368</v>
       </c>
       <c r="B193">
-        <v>0.79649999999999999</v>
+        <v>0.7964</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194">
-        <v>1646</v>
+        <v>4080</v>
       </c>
       <c r="B194">
-        <v>0.79690000000000005</v>
+        <v>0.7964</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195">
-        <v>11427</v>
+        <v>8514</v>
       </c>
       <c r="B195">
-        <v>0.79690000000000005</v>
+        <v>0.79649999999999999</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196">
-        <v>9332</v>
+        <v>1646</v>
       </c>
       <c r="B196">
-        <v>0.79710000000000003</v>
+        <v>0.79690000000000005</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197">
-        <v>1992</v>
+        <v>11427</v>
       </c>
       <c r="B197">
-        <v>0.79730000000000001</v>
+        <v>0.79690000000000005</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198">
-        <v>3</v>
+        <v>9332</v>
       </c>
       <c r="B198">
-        <v>0.79730000000000001</v>
+        <v>0.79710000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199">
-        <v>830</v>
+        <v>1992</v>
       </c>
       <c r="B199">
-        <v>0.79749999999999999</v>
+        <v>0.79730000000000001</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200">
-        <v>2802</v>
+        <v>3</v>
       </c>
       <c r="B200">
-        <v>0.79759999999999998</v>
+        <v>0.79730000000000001</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201">
-        <v>0</v>
+        <v>830</v>
       </c>
       <c r="B201">
-        <v>0.80279999999999996</v>
+        <v>0.79749999999999999</v>
       </c>
     </row>
   </sheetData>
